--- a/玩和吃的地方.xlsx
+++ b/玩和吃的地方.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB6D871-E64D-4E27-BB26-CC97710664AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2E9D6-2D85-4848-9522-23A087A467A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4199" yWindow="1537" windowWidth="16772" windowHeight="9922" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -269,6 +269,10 @@
   </si>
   <si>
     <t>路瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,8 +724,8 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -967,7 +971,9 @@
       <c r="C16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -980,7 +986,9 @@
       <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/玩和吃的地方.xlsx
+++ b/玩和吃的地方.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2E9D6-2D85-4848-9522-23A087A467A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA655612-649E-4054-8187-B08528426638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4199" yWindow="1537" windowWidth="16772" windowHeight="9922" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="1452" yWindow="1210" windowWidth="16772" windowHeight="9923" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -273,6 +273,22 @@
   </si>
   <si>
     <t>尚可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫花蒲果木牛排餐厅（萧山旺角城店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花茶+聊天+音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路瑶，徐卿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +406,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="762000"/>
@@ -722,10 +738,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -733,7 +749,7 @@
     <col min="1" max="1" width="22.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -867,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -882,7 +898,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -991,189 +1007,193 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>47</v>
+    <row r="26" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>4</v>
@@ -1184,7 +1204,7 @@
     </row>
     <row r="33" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>4</v>
@@ -1194,10 +1214,14 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1256,6 +1280,13 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
+    <row r="43" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/玩和吃的地方.xlsx
+++ b/玩和吃的地方.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA655612-649E-4054-8187-B08528426638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25FCE54-0C4B-421E-A254-58480414A467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="1210" windowWidth="16772" windowHeight="9923" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -289,6 +289,22 @@
   </si>
   <si>
     <t>路瑶，徐卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时56分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划船+夜景很美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿秋红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +422,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="762000"/>
@@ -738,10 +754,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1048,163 +1064,167 @@
       <c r="D20" s="5"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="25.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>47</v>
+    <row r="27" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>4</v>
@@ -1215,7 +1235,7 @@
     </row>
     <row r="34" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>4</v>
@@ -1225,10 +1245,14 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,6 +1311,13 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
+    <row r="44" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/玩和吃的地方.xlsx
+++ b/玩和吃的地方.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25FCE54-0C4B-421E-A254-58480414A467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F605E05D-5FB8-4013-B6CF-05B1B8B0567A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="6208" yWindow="266" windowWidth="16771" windowHeight="11617" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -305,6 +305,122 @@
   </si>
   <si>
     <t>耿秋红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活元甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉不是很入味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万松时光静暖18510801923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖哥俩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃的虾煲，还不错，蟹肉煲还没尝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa91女本科银行1.67山东女儿杨慧</t>
+  </si>
+  <si>
+    <t>aa万松萧内宝宝妈妈1188女儿</t>
+  </si>
+  <si>
+    <t>老五王是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北山公园老五王庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧山烈士陵园</t>
+  </si>
+  <si>
+    <t>有博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龟潭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水，亭台，家庭帐篷野餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白（川菜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口水鸡比较好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青学羽毛球馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定一个小时就行，后没没人接着打，管理不严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅草君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日料，性价比很高，芥末章鱼非常好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万松萧内W123吴玲佳</t>
+  </si>
+  <si>
+    <t>钱江世纪城江边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江，家庭帐篷野餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙井先生私房餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子豆腐煲挺好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛鼎旺（萧山望京店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味道一般，牛杂量也中规中矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香积寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门没开，只在外面转了转，建筑还不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通海俄式烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味道非常一般，还没我家附近烧烤摊好吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,9 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -398,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,569 +870,699 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="25.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/玩和吃的地方.xlsx
+++ b/玩和吃的地方.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F605E05D-5FB8-4013-B6CF-05B1B8B0567A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C5AF6-020E-46C2-9EB9-F1CFC5FAFAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6208" yWindow="266" windowWidth="16771" windowHeight="11617" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="787" yWindow="157" windowWidth="18405" windowHeight="11617" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -421,6 +421,30 @@
   </si>
   <si>
     <t>味道非常一般，还没我家附近烧烤摊好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西餐，贵，吃不惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万松Cherry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧内萝卜玲11闺蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞记私房三餐·四季(临浦店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花雕熟醉虾非常好吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,16 +476,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -469,6 +495,7 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -870,10 +900,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -885,653 +915,653 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="25.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E46" s="2"/>
@@ -1540,13 +1570,13 @@
       <c r="A47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1554,14 +1584,42 @@
       <c r="A48" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/玩和吃的地方.xlsx
+++ b/玩和吃的地方.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C5AF6-020E-46C2-9EB9-F1CFC5FAFAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBAFB9A-BF7F-44AC-86BC-7BE864CC0E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="787" yWindow="157" windowWidth="18405" windowHeight="11617" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -445,6 +445,14 @@
   </si>
   <si>
     <t>花雕熟醉虾非常好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹泰鲜·肉蟹煲（临平店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹肉煲，很好吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,6 +505,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -520,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +558,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,10 +918,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1622,6 +1640,20 @@
         <v>120</v>
       </c>
     </row>
+    <row r="51" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
